--- a/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
+++ b/Descargas/R15_3º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Septiembre.xlsx
@@ -281,7 +281,7 @@
         </is>
       </c>
       <c r="B8" s="65">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
